--- a/BDD/Conception BDD/Dico Données/exercice_GP.xlsx
+++ b/BDD/Conception BDD/Dico Données/exercice_GP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Code</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>transport</t>
+  </si>
+  <si>
+    <t>comité gp</t>
+  </si>
+  <si>
+    <t>type ahtlete</t>
   </si>
 </sst>
 </file>
@@ -254,16 +260,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -562,13 +568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -583,7 +589,7 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -737,7 +743,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -746,7 +754,9 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -795,7 +805,7 @@
     </row>
     <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1"/>
@@ -804,7 +814,7 @@
     </row>
     <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1"/>
@@ -813,7 +823,7 @@
     </row>
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="1"/>
@@ -822,7 +832,7 @@
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
@@ -831,7 +841,7 @@
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1"/>
